--- a/raw-data/top2018.xlsx
+++ b/raw-data/top2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseamarlborough/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseamarlborough/Desktop/milestone8/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F3E3F7-5D19-B242-8F36-B208048DE329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C9335-3187-2447-973D-F82C2647C080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - top2018 (1)" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="286">
-  <si>
-    <t>top2018 (1)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="285">
   <si>
     <t>id</t>
   </si>
@@ -888,14 +885,9 @@
     <numFmt numFmtId="164" formatCode="0E+00"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -1045,17 +1037,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1070,7 +1062,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1093,9 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2257,11 +2246,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV102"/>
+  <dimension ref="A1:IV101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2285,170 +2272,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.754</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F2" s="6">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="6">
+        <v>-9.2110000000000003</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.109</v>
+      </c>
+      <c r="J2" s="6">
+        <v>3.32E-2</v>
+      </c>
+      <c r="K2" s="7">
+        <v>8.2899999999999996E-5</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="N2" s="6">
+        <v>77.168999999999997</v>
+      </c>
+      <c r="O2" s="6">
+        <v>198973</v>
+      </c>
+      <c r="P2" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F3" s="11">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.754</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="F3" s="6">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6">
-        <v>-9.2110000000000003</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.109</v>
-      </c>
-      <c r="J3" s="6">
-        <v>3.32E-2</v>
-      </c>
-      <c r="K3" s="7">
-        <v>8.2899999999999996E-5</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="N3" s="6">
-        <v>77.168999999999997</v>
-      </c>
-      <c r="O3" s="6">
-        <v>198973</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="G3" s="11">
+        <v>-4.88</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="K3" s="11">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.123</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="N3" s="11">
+        <v>75.022999999999996</v>
+      </c>
+      <c r="O3" s="11">
+        <v>166606</v>
+      </c>
+      <c r="P3" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11">
-        <v>0.74</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="E4" s="11">
-        <v>0.61299999999999999</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="F4" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="11">
-        <v>-4.88</v>
+        <v>-6.09</v>
       </c>
       <c r="H4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="11">
-        <v>0.14499999999999999</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="J4" s="11">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3.7200000000000002E-3</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K4" s="12">
+        <v>6.5599999999999995E-5</v>
       </c>
       <c r="L4" s="11">
-        <v>0.123</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="M4" s="11">
-        <v>0.47299999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N4" s="11">
-        <v>75.022999999999996</v>
+        <v>159.84700000000001</v>
       </c>
       <c r="O4" s="11">
-        <v>166606</v>
+        <v>218147</v>
       </c>
       <c r="P4" s="11">
         <v>4</v>
@@ -2456,49 +2473,49 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="11">
-        <v>0.58699999999999997</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E5" s="11">
-        <v>0.53500000000000003</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="F5" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" s="11">
-        <v>-6.09</v>
+        <v>-8.0109999999999992</v>
       </c>
       <c r="H5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="11">
-        <v>8.9800000000000005E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J5" s="11">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="K5" s="12">
-        <v>6.5599999999999995E-5</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
       </c>
       <c r="L5" s="11">
-        <v>0.13100000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="M5" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.439</v>
       </c>
       <c r="N5" s="11">
-        <v>159.84700000000001</v>
+        <v>140.124</v>
       </c>
       <c r="O5" s="11">
-        <v>218147</v>
+        <v>221440</v>
       </c>
       <c r="P5" s="11">
         <v>4</v>
@@ -2506,49 +2523,49 @@
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" s="11">
-        <v>0.73899999999999999</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="E6" s="11">
-        <v>0.55900000000000005</v>
+        <v>0.626</v>
       </c>
       <c r="F6" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="11">
-        <v>-8.0109999999999992</v>
+        <v>-5.8330000000000002</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
       </c>
       <c r="I6" s="11">
-        <v>0.11700000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J6" s="11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="K6" s="13">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="L6" s="11">
-        <v>0.112</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="M6" s="11">
-        <v>0.439</v>
+        <v>0.35</v>
       </c>
       <c r="N6" s="11">
-        <v>140.124</v>
+        <v>91.03</v>
       </c>
       <c r="O6" s="11">
-        <v>221440</v>
+        <v>217925</v>
       </c>
       <c r="P6" s="11">
         <v>4</v>
@@ -2556,49 +2573,49 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" s="11">
-        <v>0.83499999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="E7" s="11">
-        <v>0.626</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="F7" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="11">
-        <v>-5.8330000000000002</v>
+        <v>-5.843</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11">
-        <v>0.125</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="J7" s="11">
-        <v>5.8900000000000001E-2</v>
-      </c>
-      <c r="K7" s="13">
-        <v>6.0000000000000002E-5</v>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
       </c>
       <c r="L7" s="11">
-        <v>0.39600000000000002</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="M7" s="11">
-        <v>0.35</v>
+        <v>0.374</v>
       </c>
       <c r="N7" s="11">
-        <v>91.03</v>
+        <v>145.02799999999999</v>
       </c>
       <c r="O7" s="11">
-        <v>217925</v>
+        <v>231267</v>
       </c>
       <c r="P7" s="11">
         <v>4</v>
@@ -2606,49 +2623,49 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11">
-        <v>0.68</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="E8" s="11">
-        <v>0.56299999999999994</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="F8" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8" s="11">
-        <v>-5.843</v>
+        <v>-3.9980000000000002</v>
       </c>
       <c r="H8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
-        <v>4.5400000000000003E-2</v>
+        <v>0.129</v>
       </c>
       <c r="J8" s="11">
-        <v>0.35399999999999998</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="K8" s="11">
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <v>0.13600000000000001</v>
+        <v>0.372</v>
       </c>
       <c r="M8" s="11">
-        <v>0.374</v>
+        <v>0.65</v>
       </c>
       <c r="N8" s="11">
-        <v>145.02799999999999</v>
+        <v>136.048</v>
       </c>
       <c r="O8" s="11">
-        <v>231267</v>
+        <v>253390</v>
       </c>
       <c r="P8" s="11">
         <v>4</v>
@@ -2656,49 +2673,49 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="11">
-        <v>0.81599999999999995</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="E9" s="11">
-        <v>0.72599999999999998</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="F9" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G9" s="11">
-        <v>-3.9980000000000002</v>
+        <v>-3.24</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
       </c>
       <c r="I9" s="11">
-        <v>0.129</v>
+        <v>0.11</v>
       </c>
       <c r="J9" s="11">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K9" s="12">
+        <v>2.19E-5</v>
       </c>
       <c r="L9" s="11">
-        <v>0.372</v>
+        <v>8.14E-2</v>
       </c>
       <c r="M9" s="11">
-        <v>0.65</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="N9" s="11">
-        <v>136.048</v>
+        <v>123.994</v>
       </c>
       <c r="O9" s="11">
-        <v>253390</v>
+        <v>214847</v>
       </c>
       <c r="P9" s="11">
         <v>4</v>
@@ -2706,49 +2723,49 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="11">
-        <v>0.79100000000000004</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="E10" s="11">
-        <v>0.86199999999999999</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="F10" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="11">
-        <v>-3.24</v>
+        <v>-5.9749999999999996</v>
       </c>
       <c r="H10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="11">
-        <v>0.11</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="J10" s="11">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="K10" s="12">
-        <v>2.19E-5</v>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
       </c>
       <c r="L10" s="11">
-        <v>8.14E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="M10" s="11">
-        <v>0.59199999999999997</v>
+        <v>0.51</v>
       </c>
       <c r="N10" s="11">
-        <v>123.994</v>
+        <v>97.028000000000006</v>
       </c>
       <c r="O10" s="11">
-        <v>214847</v>
+        <v>217947</v>
       </c>
       <c r="P10" s="11">
         <v>4</v>
@@ -2756,49 +2773,49 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="11">
-        <v>0.83599999999999997</v>
+        <v>0.626</v>
       </c>
       <c r="E11" s="11">
-        <v>0.54400000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="F11" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="11">
-        <v>-5.9749999999999996</v>
+        <v>-2.3839999999999999</v>
       </c>
       <c r="H11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>9.4299999999999995E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="J11" s="11">
-        <v>4.0300000000000002E-2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="K11" s="11">
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <v>8.2400000000000001E-2</v>
+        <v>0.128</v>
       </c>
       <c r="M11" s="11">
-        <v>0.51</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="N11" s="11">
-        <v>97.028000000000006</v>
+        <v>95.078999999999994</v>
       </c>
       <c r="O11" s="11">
-        <v>217947</v>
+        <v>202621</v>
       </c>
       <c r="P11" s="11">
         <v>4</v>
@@ -2806,49 +2823,49 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11">
-        <v>0.626</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="E12" s="11">
-        <v>0.88</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F12" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G12" s="11">
-        <v>-2.3839999999999999</v>
+        <v>-4.3330000000000002</v>
       </c>
       <c r="H12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="11">
-        <v>5.04E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J12" s="11">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
+        <v>0.184</v>
+      </c>
+      <c r="K12" s="12">
+        <v>3.5599999999999998E-5</v>
       </c>
       <c r="L12" s="11">
-        <v>0.128</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="M12" s="11">
-        <v>0.53400000000000003</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="N12" s="11">
-        <v>95.078999999999994</v>
+        <v>104.988</v>
       </c>
       <c r="O12" s="11">
-        <v>202621</v>
+        <v>217307</v>
       </c>
       <c r="P12" s="11">
         <v>4</v>
@@ -2856,49 +2873,49 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11">
-        <v>0.76500000000000001</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="E13" s="11">
-        <v>0.52300000000000002</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="F13" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13" s="11">
-        <v>-4.3330000000000002</v>
+        <v>-7.23</v>
       </c>
       <c r="H13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="11">
-        <v>0.184</v>
-      </c>
-      <c r="K13" s="12">
-        <v>3.5599999999999998E-5</v>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>0.13200000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="M13" s="11">
-        <v>0.39400000000000002</v>
+        <v>0.218</v>
       </c>
       <c r="N13" s="11">
-        <v>104.988</v>
+        <v>83.903000000000006</v>
       </c>
       <c r="O13" s="11">
-        <v>217307</v>
+        <v>239836</v>
       </c>
       <c r="P13" s="11">
         <v>4</v>
@@ -2906,49 +2923,49 @@
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D14" s="11">
-        <v>0.51100000000000001</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E14" s="11">
-        <v>0.56599999999999995</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="F14" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="11">
-        <v>-7.23</v>
+        <v>-6.4740000000000002</v>
       </c>
       <c r="H14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11">
-        <v>0.2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="J14" s="11">
-        <v>0.34899999999999998</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="K14" s="11">
-        <v>0</v>
+        <v>1.0900000000000001E-4</v>
       </c>
       <c r="L14" s="11">
-        <v>0.34</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="M14" s="11">
-        <v>0.218</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="N14" s="11">
-        <v>83.903000000000006</v>
+        <v>93.394000000000005</v>
       </c>
       <c r="O14" s="11">
-        <v>239836</v>
+        <v>210747</v>
       </c>
       <c r="P14" s="11">
         <v>4</v>
@@ -2956,49 +2973,49 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11">
-        <v>0.58599999999999997</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="E15" s="11">
-        <v>0.90900000000000003</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="F15" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
-        <v>-6.4740000000000002</v>
+        <v>-6.8250000000000002</v>
       </c>
       <c r="H15" s="11">
         <v>1</v>
       </c>
       <c r="I15" s="11">
-        <v>7.0499999999999993E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="J15" s="11">
-        <v>8.9099999999999999E-2</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="K15" s="11">
-        <v>1.0900000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>0.11899999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="M15" s="11">
-        <v>0.75700000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="N15" s="11">
-        <v>93.394000000000005</v>
+        <v>124.959</v>
       </c>
       <c r="O15" s="11">
-        <v>210747</v>
+        <v>235545</v>
       </c>
       <c r="P15" s="11">
         <v>4</v>
@@ -3006,49 +3023,49 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="11">
-        <v>0.85099999999999998</v>
+        <v>0.753</v>
       </c>
       <c r="E16" s="11">
-        <v>0.54100000000000004</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G16" s="11">
-        <v>-6.8250000000000002</v>
+        <v>-3.0609999999999999</v>
       </c>
       <c r="H16" s="11">
         <v>1</v>
       </c>
       <c r="I16" s="11">
-        <v>5.0500000000000003E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="J16" s="11">
-        <v>0.56799999999999995</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="K16" s="11">
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <v>0.13</v>
+        <v>0.112</v>
       </c>
       <c r="M16" s="11">
-        <v>0.44800000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="N16" s="11">
-        <v>124.959</v>
+        <v>107.01</v>
       </c>
       <c r="O16" s="11">
-        <v>235545</v>
+        <v>184732</v>
       </c>
       <c r="P16" s="11">
         <v>4</v>
@@ -3056,49 +3073,49 @@
     </row>
     <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="11">
-        <v>0.753</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="E17" s="11">
-        <v>0.65700000000000003</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F17" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" s="11">
-        <v>-3.0609999999999999</v>
+        <v>-4.9459999999999997</v>
       </c>
       <c r="H17" s="11">
         <v>1</v>
       </c>
       <c r="I17" s="11">
-        <v>4.4900000000000002E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="J17" s="11">
-        <v>0.17100000000000001</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="K17" s="11">
-        <v>0</v>
+        <v>1.94E-4</v>
       </c>
       <c r="L17" s="11">
-        <v>0.112</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="M17" s="11">
-        <v>0.437</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="N17" s="11">
-        <v>107.01</v>
+        <v>96.924000000000007</v>
       </c>
       <c r="O17" s="11">
-        <v>184732</v>
+        <v>232187</v>
       </c>
       <c r="P17" s="11">
         <v>4</v>
@@ -3106,49 +3123,49 @@
     </row>
     <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="11">
-        <v>0.69799999999999995</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="E18" s="11">
-        <v>0.63300000000000001</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F18" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="11">
-        <v>-4.9459999999999997</v>
+        <v>-5.5069999999999997</v>
       </c>
       <c r="H18" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>5.9700000000000003E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J18" s="11">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="K18" s="11">
-        <v>1.94E-4</v>
+        <v>0.04</v>
+      </c>
+      <c r="K18" s="12">
+        <v>3.1099999999999999E-6</v>
       </c>
       <c r="L18" s="11">
-        <v>9.2600000000000002E-2</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="M18" s="11">
-        <v>0.55200000000000005</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="N18" s="11">
-        <v>96.924000000000007</v>
+        <v>121.99299999999999</v>
       </c>
       <c r="O18" s="11">
-        <v>232187</v>
+        <v>205920</v>
       </c>
       <c r="P18" s="11">
         <v>4</v>
@@ -3156,49 +3173,49 @@
     </row>
     <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" s="11">
-        <v>0.69899999999999995</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="E19" s="11">
-        <v>0.71299999999999997</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="F19" s="11">
         <v>9</v>
       </c>
       <c r="G19" s="11">
-        <v>-5.5069999999999997</v>
+        <v>-4.7359999999999998</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>5.9400000000000001E-2</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="J19" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="K19" s="12">
-        <v>3.1099999999999999E-6</v>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.08E-3</v>
       </c>
       <c r="L19" s="11">
-        <v>0.29399999999999998</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="M19" s="11">
-        <v>0.35399999999999998</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="N19" s="11">
-        <v>121.99299999999999</v>
+        <v>180.07300000000001</v>
       </c>
       <c r="O19" s="11">
-        <v>205920</v>
+        <v>173628</v>
       </c>
       <c r="P19" s="11">
         <v>4</v>
@@ -3206,49 +3223,49 @@
     </row>
     <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D20" s="11">
-        <v>0.59499999999999997</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="E20" s="11">
-        <v>0.77300000000000002</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="F20" s="11">
         <v>9</v>
       </c>
       <c r="G20" s="11">
-        <v>-4.7359999999999998</v>
+        <v>-5.7229999999999999</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>5.4899999999999997E-2</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="J20" s="11">
-        <v>3.6400000000000002E-2</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="K20" s="11">
-        <v>1.08E-3</v>
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="L20" s="11">
-        <v>0.33400000000000002</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="M20" s="11">
         <v>0.71099999999999997</v>
       </c>
       <c r="N20" s="11">
-        <v>180.07300000000001</v>
+        <v>128.00899999999999</v>
       </c>
       <c r="O20" s="11">
-        <v>173628</v>
+        <v>135090</v>
       </c>
       <c r="P20" s="11">
         <v>4</v>
@@ -3256,49 +3273,49 @@
     </row>
     <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D21" s="11">
-        <v>0.92100000000000004</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="E21" s="11">
-        <v>0.53700000000000003</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="F21" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="11">
-        <v>-5.7229999999999999</v>
+        <v>-7.4950000000000001</v>
       </c>
       <c r="H21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="11">
-        <v>8.0399999999999999E-2</v>
+        <v>0.27</v>
       </c>
       <c r="J21" s="11">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="K21" s="11">
-        <v>4.0400000000000002E-3</v>
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="K21" s="12">
+        <v>5.8600000000000001E-5</v>
       </c>
       <c r="L21" s="11">
-        <v>0.10199999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="M21" s="11">
-        <v>0.71099999999999997</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="N21" s="11">
-        <v>128.00899999999999</v>
+        <v>140.02199999999999</v>
       </c>
       <c r="O21" s="11">
-        <v>135090</v>
+        <v>181263</v>
       </c>
       <c r="P21" s="11">
         <v>4</v>
@@ -3306,49 +3323,49 @@
     </row>
     <row r="22" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="11">
-        <v>0.92200000000000004</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="E22" s="11">
-        <v>0.58099999999999996</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F22" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G22" s="11">
-        <v>-7.4950000000000001</v>
+        <v>-4.0570000000000004</v>
       </c>
       <c r="H22" s="11">
         <v>1</v>
       </c>
       <c r="I22" s="11">
-        <v>0.27</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="J22" s="11">
-        <v>1.0399999999999999E-3</v>
-      </c>
-      <c r="K22" s="12">
-        <v>5.8600000000000001E-5</v>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
       </c>
       <c r="L22" s="11">
-        <v>0.105</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="M22" s="11">
-        <v>0.59499999999999997</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N22" s="11">
-        <v>140.02199999999999</v>
+        <v>92.212999999999994</v>
       </c>
       <c r="O22" s="11">
-        <v>181263</v>
+        <v>210773</v>
       </c>
       <c r="P22" s="11">
         <v>4</v>
@@ -3356,49 +3373,49 @@
     </row>
     <row r="23" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="11">
-        <v>0.65300000000000002</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="E23" s="11">
-        <v>0.80900000000000005</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="F23" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G23" s="11">
-        <v>-4.0570000000000004</v>
+        <v>-3.4449999999999998</v>
       </c>
       <c r="H23" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>4.7399999999999998E-2</v>
+        <v>0.214</v>
       </c>
       <c r="J23" s="11">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1.2799999999999999E-5</v>
       </c>
       <c r="L23" s="11">
-        <v>0.16500000000000001</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="M23" s="11">
-        <v>0.55000000000000004</v>
+        <v>0.442</v>
       </c>
       <c r="N23" s="11">
-        <v>92.212999999999994</v>
+        <v>96.507000000000005</v>
       </c>
       <c r="O23" s="11">
-        <v>210773</v>
+        <v>417920</v>
       </c>
       <c r="P23" s="11">
         <v>4</v>
@@ -3406,49 +3423,49 @@
     </row>
     <row r="24" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="11">
-        <v>0.90300000000000002</v>
+        <v>0.71</v>
       </c>
       <c r="E24" s="11">
-        <v>0.67500000000000004</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="F24" s="11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G24" s="11">
-        <v>-3.4449999999999998</v>
+        <v>-3.8740000000000001</v>
       </c>
       <c r="H24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11">
-        <v>0.214</v>
+        <v>7.22E-2</v>
       </c>
       <c r="J24" s="11">
-        <v>0.54200000000000004</v>
+        <v>1.61E-2</v>
       </c>
       <c r="K24" s="12">
-        <v>1.2799999999999999E-5</v>
+        <v>2.7700000000000002E-6</v>
       </c>
       <c r="L24" s="11">
-        <v>5.9499999999999997E-2</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="M24" s="11">
-        <v>0.442</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="N24" s="11">
-        <v>96.507000000000005</v>
+        <v>142.929</v>
       </c>
       <c r="O24" s="11">
-        <v>417920</v>
+        <v>131064</v>
       </c>
       <c r="P24" s="11">
         <v>4</v>
@@ -3456,49 +3473,49 @@
     </row>
     <row r="25" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="11">
-        <v>0.71</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E25" s="11">
-        <v>0.78900000000000003</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="F25" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G25" s="11">
-        <v>-3.8740000000000001</v>
+        <v>-5.1139999999999999</v>
       </c>
       <c r="H25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>7.22E-2</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="J25" s="11">
-        <v>1.61E-2</v>
-      </c>
-      <c r="K25" s="12">
-        <v>2.7700000000000002E-6</v>
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
       </c>
       <c r="L25" s="11">
-        <v>0.45100000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="M25" s="11">
-        <v>0.71699999999999997</v>
+        <v>0.152</v>
       </c>
       <c r="N25" s="11">
-        <v>142.929</v>
+        <v>120.274</v>
       </c>
       <c r="O25" s="11">
-        <v>131064</v>
+        <v>203418</v>
       </c>
       <c r="P25" s="11">
         <v>4</v>
@@ -3506,49 +3523,49 @@
     </row>
     <row r="26" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D26" s="11">
-        <v>0.59599999999999997</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="E26" s="11">
-        <v>0.85399999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="F26" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="11">
-        <v>-5.1139999999999999</v>
+        <v>-6.0209999999999999</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>0.46300000000000002</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="J26" s="11">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0</v>
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="K26" s="12">
+        <v>1.56E-5</v>
       </c>
       <c r="L26" s="11">
-        <v>0.124</v>
+        <v>0.153</v>
       </c>
       <c r="M26" s="11">
-        <v>0.152</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="N26" s="11">
-        <v>120.274</v>
+        <v>116.07299999999999</v>
       </c>
       <c r="O26" s="11">
-        <v>203418</v>
+        <v>209320</v>
       </c>
       <c r="P26" s="11">
         <v>4</v>
@@ -3556,49 +3573,49 @@
     </row>
     <row r="27" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D27" s="11">
-        <v>0.76200000000000001</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E27" s="11">
-        <v>0.7</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="F27" s="11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G27" s="11">
-        <v>-6.0209999999999999</v>
+        <v>-3.1829999999999998</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
       </c>
       <c r="I27" s="11">
-        <v>6.9400000000000003E-2</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="J27" s="11">
-        <v>2.6099999999999999E-3</v>
-      </c>
-      <c r="K27" s="12">
-        <v>1.56E-5</v>
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
       </c>
       <c r="L27" s="11">
-        <v>0.153</v>
+        <v>9.3100000000000002E-2</v>
       </c>
       <c r="M27" s="11">
-        <v>0.60799999999999998</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="N27" s="11">
-        <v>116.07299999999999</v>
+        <v>95.977000000000004</v>
       </c>
       <c r="O27" s="11">
-        <v>209320</v>
+        <v>233713</v>
       </c>
       <c r="P27" s="11">
         <v>4</v>
@@ -3606,49 +3623,49 @@
     </row>
     <row r="28" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="11">
-        <v>0.82499999999999996</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="E28" s="11">
-        <v>0.65200000000000002</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F28" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G28" s="11">
-        <v>-3.1829999999999998</v>
+        <v>-5.6260000000000003</v>
       </c>
       <c r="H28" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="11">
-        <v>8.0199999999999994E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="J28" s="11">
-        <v>0.58099999999999996</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="K28" s="11">
         <v>0</v>
       </c>
       <c r="L28" s="11">
-        <v>9.3100000000000002E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="M28" s="11">
-        <v>0.93100000000000005</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="N28" s="11">
-        <v>95.977000000000004</v>
+        <v>143.95500000000001</v>
       </c>
       <c r="O28" s="11">
-        <v>233713</v>
+        <v>201707</v>
       </c>
       <c r="P28" s="11">
         <v>4</v>
@@ -3656,49 +3673,49 @@
     </row>
     <row r="29" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="11">
-        <v>0.70799999999999996</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="E29" s="11">
-        <v>0.64800000000000002</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="F29" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" s="11">
-        <v>-5.6260000000000003</v>
+        <v>-6.61</v>
       </c>
       <c r="H29" s="11">
         <v>1</v>
       </c>
       <c r="I29" s="11">
-        <v>4.4900000000000002E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="J29" s="11">
-        <v>9.5600000000000004E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="K29" s="11">
         <v>0</v>
       </c>
       <c r="L29" s="11">
-        <v>0.13400000000000001</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="M29" s="11">
-        <v>0.33800000000000002</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="N29" s="11">
-        <v>143.95500000000001</v>
+        <v>153.995</v>
       </c>
       <c r="O29" s="11">
-        <v>201707</v>
+        <v>164205</v>
       </c>
       <c r="P29" s="11">
         <v>4</v>
@@ -3706,49 +3723,49 @@
     </row>
     <row r="30" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D30" s="11">
-        <v>0.64200000000000002</v>
+        <v>0.872</v>
       </c>
       <c r="E30" s="11">
-        <v>0.77200000000000002</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F30" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G30" s="11">
-        <v>-6.61</v>
+        <v>-9.1440000000000001</v>
       </c>
       <c r="H30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>8.48E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="J30" s="11">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="K30" s="12">
+        <v>4.1300000000000003E-6</v>
       </c>
       <c r="L30" s="11">
-        <v>6.4600000000000005E-2</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="M30" s="11">
-        <v>0.58899999999999997</v>
+        <v>0.437</v>
       </c>
       <c r="N30" s="11">
-        <v>153.995</v>
+        <v>134.02099999999999</v>
       </c>
       <c r="O30" s="11">
-        <v>164205</v>
+        <v>119133</v>
       </c>
       <c r="P30" s="11">
         <v>4</v>
@@ -3756,149 +3773,149 @@
     </row>
     <row r="31" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D31" s="11">
-        <v>0.872</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="E31" s="11">
-        <v>0.39100000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="F31" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G31" s="11">
-        <v>-9.1440000000000001</v>
+        <v>-6.3120000000000003</v>
       </c>
       <c r="H31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="11">
-        <v>0.24199999999999999</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="J31" s="11">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="K31" s="12">
-        <v>4.1300000000000003E-6</v>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
       </c>
       <c r="L31" s="11">
-        <v>0.29699999999999999</v>
+        <v>0.106</v>
       </c>
       <c r="M31" s="11">
-        <v>0.437</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="N31" s="11">
-        <v>134.02099999999999</v>
+        <v>95.05</v>
       </c>
       <c r="O31" s="11">
-        <v>119133</v>
+        <v>263400</v>
       </c>
       <c r="P31" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D32" s="11">
-        <v>0.59899999999999998</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="E32" s="11">
-        <v>0.44800000000000001</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="F32" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G32" s="11">
-        <v>-6.3120000000000003</v>
+        <v>-7.4420000000000002</v>
       </c>
       <c r="H32" s="11">
         <v>1</v>
       </c>
       <c r="I32" s="11">
-        <v>2.3199999999999998E-2</v>
+        <v>0.12</v>
       </c>
       <c r="J32" s="11">
-        <v>0.16300000000000001</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="K32" s="11">
         <v>0</v>
       </c>
       <c r="L32" s="11">
-        <v>0.106</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="M32" s="11">
-        <v>0.16800000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="N32" s="11">
-        <v>95.05</v>
+        <v>97.994</v>
       </c>
       <c r="O32" s="11">
-        <v>263400</v>
+        <v>232959</v>
       </c>
       <c r="P32" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="11">
-        <v>0.88400000000000001</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E33" s="11">
-        <v>0.55900000000000005</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="F33" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G33" s="11">
-        <v>-7.4420000000000002</v>
+        <v>-4.5460000000000003</v>
       </c>
       <c r="H33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>0.12</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J33" s="11">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
+        <v>4.41E-2</v>
+      </c>
+      <c r="K33" s="12">
+        <v>6.6600000000000006E-5</v>
       </c>
       <c r="L33" s="11">
-        <v>0.10100000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="M33" s="11">
-        <v>0.34200000000000003</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="N33" s="11">
-        <v>97.994</v>
+        <v>105.005</v>
       </c>
       <c r="O33" s="11">
-        <v>232959</v>
+        <v>222653</v>
       </c>
       <c r="P33" s="11">
         <v>4</v>
@@ -3906,49 +3923,49 @@
     </row>
     <row r="34" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D34" s="11">
-        <v>0.73699999999999999</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="E34" s="11">
-        <v>0.63600000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="F34" s="11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G34" s="11">
-        <v>-4.5460000000000003</v>
+        <v>-5.4080000000000004</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>4.3700000000000003E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="J34" s="11">
-        <v>4.41E-2</v>
-      </c>
-      <c r="K34" s="12">
-        <v>6.6600000000000006E-5</v>
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
       </c>
       <c r="L34" s="11">
-        <v>0.35</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="M34" s="11">
-        <v>0.56499999999999995</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="N34" s="11">
-        <v>105.005</v>
+        <v>143.94999999999999</v>
       </c>
       <c r="O34" s="11">
-        <v>222653</v>
+        <v>223347</v>
       </c>
       <c r="P34" s="11">
         <v>4</v>
@@ -3956,49 +3973,49 @@
     </row>
     <row r="35" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="D35" s="11">
-        <v>0.55600000000000005</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="E35" s="11">
-        <v>0.53800000000000003</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F35" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G35" s="11">
-        <v>-5.4080000000000004</v>
+        <v>-8.3539999999999992</v>
       </c>
       <c r="H35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="11">
-        <v>3.8199999999999998E-2</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="J35" s="11">
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
+        <v>0.156</v>
+      </c>
+      <c r="K35" s="12">
+        <v>9.7799999999999995E-6</v>
       </c>
       <c r="L35" s="11">
-        <v>0.19600000000000001</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="M35" s="11">
-        <v>0.29099999999999998</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="N35" s="11">
-        <v>143.94999999999999</v>
+        <v>99.975999999999999</v>
       </c>
       <c r="O35" s="11">
-        <v>223347</v>
+        <v>156600</v>
       </c>
       <c r="P35" s="11">
         <v>4</v>
@@ -4006,49 +4023,49 @@
     </row>
     <row r="36" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="11">
-        <v>0.59199999999999997</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="E36" s="11">
-        <v>0.69099999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="F36" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" s="11">
-        <v>-8.3539999999999992</v>
+        <v>-3.6549999999999998</v>
       </c>
       <c r="H36" s="11">
         <v>1</v>
       </c>
       <c r="I36" s="11">
-        <v>0.19600000000000001</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="J36" s="11">
-        <v>0.156</v>
-      </c>
-      <c r="K36" s="12">
-        <v>9.7799999999999995E-6</v>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
       </c>
       <c r="L36" s="11">
-        <v>0.41799999999999998</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="M36" s="11">
-        <v>7.9600000000000004E-2</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="N36" s="11">
-        <v>99.975999999999999</v>
+        <v>96.024000000000001</v>
       </c>
       <c r="O36" s="11">
-        <v>156600</v>
+        <v>173720</v>
       </c>
       <c r="P36" s="11">
         <v>4</v>
@@ -4056,49 +4073,49 @@
     </row>
     <row r="37" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="11">
-        <v>0.72599999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E37" s="11">
-        <v>0.88900000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="F37" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G37" s="11">
-        <v>-3.6549999999999998</v>
+        <v>-7.6479999999999997</v>
       </c>
       <c r="H37" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="11">
-        <v>4.2900000000000001E-2</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="J37" s="11">
-        <v>3.2800000000000003E-2</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="K37" s="11">
         <v>0</v>
       </c>
       <c r="L37" s="11">
-        <v>9.2499999999999999E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="M37" s="11">
-        <v>0.64900000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="N37" s="11">
-        <v>96.024000000000001</v>
+        <v>89.391000000000005</v>
       </c>
       <c r="O37" s="11">
-        <v>173720</v>
+        <v>173800</v>
       </c>
       <c r="P37" s="11">
         <v>4</v>
@@ -4106,49 +4123,49 @@
     </row>
     <row r="38" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="D38" s="11">
-        <v>0.56000000000000005</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="E38" s="11">
-        <v>0.68</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F38" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>-7.6479999999999997</v>
+        <v>-4.3330000000000002</v>
       </c>
       <c r="H38" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="11">
-        <v>0.32100000000000001</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="J38" s="11">
-        <v>0.55500000000000005</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="K38" s="11">
-        <v>0</v>
+        <v>6.3699999999999998E-4</v>
       </c>
       <c r="L38" s="11">
-        <v>0.11600000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="M38" s="11">
-        <v>0.31900000000000001</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="N38" s="11">
-        <v>89.391000000000005</v>
+        <v>129.923</v>
       </c>
       <c r="O38" s="11">
-        <v>173800</v>
+        <v>226973</v>
       </c>
       <c r="P38" s="11">
         <v>4</v>
@@ -4156,49 +4173,49 @@
     </row>
     <row r="39" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D39" s="11">
-        <v>0.63700000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E39" s="11">
-        <v>0.71299999999999997</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="F39" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G39" s="11">
-        <v>-4.3330000000000002</v>
+        <v>-4.59</v>
       </c>
       <c r="H39" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="11">
-        <v>7.4700000000000003E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="J39" s="11">
-        <v>0.18099999999999999</v>
+        <v>0.129</v>
       </c>
       <c r="K39" s="11">
-        <v>6.3699999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="L39" s="11">
-        <v>0.13700000000000001</v>
+        <v>0.183</v>
       </c>
       <c r="M39" s="11">
-        <v>0.24299999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="N39" s="11">
-        <v>129.923</v>
+        <v>124.946</v>
       </c>
       <c r="O39" s="11">
-        <v>226973</v>
+        <v>197993</v>
       </c>
       <c r="P39" s="11">
         <v>4</v>
@@ -4206,49 +4223,49 @@
     </row>
     <row r="40" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D40" s="11">
-        <v>0.72</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="E40" s="11">
-        <v>0.80700000000000005</v>
+        <v>0.308</v>
       </c>
       <c r="F40" s="11">
         <v>11</v>
       </c>
       <c r="G40" s="11">
-        <v>-4.59</v>
+        <v>-10.068</v>
       </c>
       <c r="H40" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="11">
-        <v>4.3200000000000002E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="J40" s="11">
-        <v>0.129</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="K40" s="11">
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <v>0.183</v>
+        <v>9.8400000000000001E-2</v>
       </c>
       <c r="M40" s="11">
-        <v>0.30499999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="N40" s="11">
-        <v>124.946</v>
+        <v>64.933999999999997</v>
       </c>
       <c r="O40" s="11">
-        <v>197993</v>
+        <v>121887</v>
       </c>
       <c r="P40" s="11">
         <v>4</v>
@@ -4256,49 +4273,49 @@
     </row>
     <row r="41" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="D41" s="11">
-        <v>0.66900000000000004</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="E41" s="11">
-        <v>0.308</v>
+        <v>0.77</v>
       </c>
       <c r="F41" s="11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G41" s="11">
-        <v>-10.068</v>
+        <v>-5.335</v>
       </c>
       <c r="H41" s="11">
         <v>1</v>
       </c>
       <c r="I41" s="11">
-        <v>2.9000000000000001E-2</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="J41" s="11">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K41" s="14">
+        <v>1.1E-5</v>
       </c>
       <c r="L41" s="11">
-        <v>9.8400000000000001E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="M41" s="11">
-        <v>0.52</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="N41" s="11">
-        <v>64.933999999999997</v>
+        <v>125.905</v>
       </c>
       <c r="O41" s="11">
-        <v>121887</v>
+        <v>184560</v>
       </c>
       <c r="P41" s="11">
         <v>4</v>
@@ -4306,49 +4323,49 @@
     </row>
     <row r="42" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="11">
-        <v>0.69399999999999995</v>
+        <v>0.748</v>
       </c>
       <c r="E42" s="11">
-        <v>0.77</v>
+        <v>0.749</v>
       </c>
       <c r="F42" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="11">
-        <v>-5.335</v>
+        <v>-5.9160000000000004</v>
       </c>
       <c r="H42" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="11">
-        <v>0.14899999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="J42" s="11">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="K42" s="14">
-        <v>1.1E-5</v>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
       </c>
       <c r="L42" s="11">
-        <v>0.11799999999999999</v>
+        <v>7.1300000000000002E-2</v>
       </c>
       <c r="M42" s="11">
-        <v>0.16300000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="N42" s="11">
-        <v>125.905</v>
+        <v>90.09</v>
       </c>
       <c r="O42" s="11">
-        <v>184560</v>
+        <v>221013</v>
       </c>
       <c r="P42" s="11">
         <v>4</v>
@@ -4356,49 +4373,49 @@
     </row>
     <row r="43" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="11">
-        <v>0.748</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="E43" s="11">
-        <v>0.749</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="F43" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G43" s="11">
-        <v>-5.9160000000000004</v>
+        <v>-3.456</v>
       </c>
       <c r="H43" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="11">
-        <v>0.51600000000000001</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="J43" s="11">
-        <v>0.14199999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="K43" s="11">
         <v>0</v>
       </c>
       <c r="L43" s="11">
-        <v>7.1300000000000002E-2</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="M43" s="11">
-        <v>0.65900000000000003</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="N43" s="11">
-        <v>90.09</v>
+        <v>95</v>
       </c>
       <c r="O43" s="11">
-        <v>221013</v>
+        <v>200480</v>
       </c>
       <c r="P43" s="11">
         <v>4</v>
@@ -4406,49 +4423,49 @@
     </row>
     <row r="44" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="11">
-        <v>0.79100000000000004</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="E44" s="11">
-        <v>0.84799999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="F44" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G44" s="11">
-        <v>-3.456</v>
+        <v>-3.714</v>
       </c>
       <c r="H44" s="11">
         <v>1</v>
       </c>
       <c r="I44" s="11">
-        <v>5.0599999999999999E-2</v>
+        <v>0.222</v>
       </c>
       <c r="J44" s="11">
-        <v>0.183</v>
+        <v>5.13E-3</v>
       </c>
       <c r="K44" s="11">
         <v>0</v>
       </c>
       <c r="L44" s="11">
-        <v>0.40899999999999997</v>
+        <v>0.124</v>
       </c>
       <c r="M44" s="11">
-        <v>0.82799999999999996</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="N44" s="11">
-        <v>95</v>
+        <v>155.00800000000001</v>
       </c>
       <c r="O44" s="11">
-        <v>200480</v>
+        <v>312820</v>
       </c>
       <c r="P44" s="11">
         <v>4</v>
@@ -4456,49 +4473,49 @@
     </row>
     <row r="45" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="11">
-        <v>0.83399999999999996</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="E45" s="11">
-        <v>0.73</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="F45" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G45" s="11">
-        <v>-3.714</v>
+        <v>-4.8330000000000002</v>
       </c>
       <c r="H45" s="11">
         <v>1</v>
       </c>
       <c r="I45" s="11">
-        <v>0.222</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="J45" s="11">
-        <v>5.13E-3</v>
+        <v>6.7099999999999998E-3</v>
       </c>
       <c r="K45" s="11">
-        <v>0</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="L45" s="11">
-        <v>0.124</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="M45" s="11">
-        <v>0.44600000000000001</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="N45" s="11">
-        <v>155.00800000000001</v>
+        <v>167.99700000000001</v>
       </c>
       <c r="O45" s="11">
-        <v>312820</v>
+        <v>187147</v>
       </c>
       <c r="P45" s="11">
         <v>4</v>
@@ -4506,49 +4523,49 @@
     </row>
     <row r="46" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="11">
-        <v>0.60499999999999998</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="E46" s="11">
-        <v>0.82199999999999995</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
       </c>
       <c r="G46" s="11">
-        <v>-4.8330000000000002</v>
+        <v>-4.4489999999999998</v>
       </c>
       <c r="H46" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="11">
-        <v>4.3799999999999999E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="J46" s="11">
-        <v>6.7099999999999998E-3</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="K46" s="11">
-        <v>0.13400000000000001</v>
+        <v>0</v>
       </c>
       <c r="L46" s="11">
-        <v>0.14699999999999999</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="M46" s="11">
-        <v>0.28799999999999998</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="N46" s="11">
-        <v>167.99700000000001</v>
+        <v>94.022999999999996</v>
       </c>
       <c r="O46" s="11">
-        <v>187147</v>
+        <v>221653</v>
       </c>
       <c r="P46" s="11">
         <v>4</v>
@@ -4556,49 +4573,49 @@
     </row>
     <row r="47" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="11">
-        <v>0.77700000000000002</v>
+        <v>0.747</v>
       </c>
       <c r="E47" s="11">
-        <v>0.77900000000000003</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="F47" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47" s="11">
-        <v>-4.4489999999999998</v>
+        <v>-2.867</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>9.7199999999999995E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="J47" s="11">
-        <v>5.4300000000000001E-2</v>
+        <v>0.374</v>
       </c>
       <c r="K47" s="11">
         <v>0</v>
       </c>
       <c r="L47" s="11">
-        <v>0.63600000000000001</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="M47" s="11">
-        <v>0.76800000000000002</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="N47" s="11">
-        <v>94.022999999999996</v>
+        <v>128.005</v>
       </c>
       <c r="O47" s="11">
-        <v>221653</v>
+        <v>215760</v>
       </c>
       <c r="P47" s="11">
         <v>4</v>
@@ -4606,49 +4623,49 @@
     </row>
     <row r="48" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="11">
-        <v>0.747</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E48" s="11">
-        <v>0.83399999999999996</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="F48" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" s="11">
-        <v>-2.867</v>
+        <v>-4.8769999999999998</v>
       </c>
       <c r="H48" s="11">
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>4.4999999999999998E-2</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="J48" s="11">
-        <v>0.374</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="K48" s="11">
         <v>0</v>
       </c>
       <c r="L48" s="11">
-        <v>5.8599999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="M48" s="11">
-        <v>0.68700000000000006</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="N48" s="11">
-        <v>128.005</v>
+        <v>105.11499999999999</v>
       </c>
       <c r="O48" s="11">
-        <v>215760</v>
+        <v>217289</v>
       </c>
       <c r="P48" s="11">
         <v>4</v>
@@ -4656,49 +4673,49 @@
     </row>
     <row r="49" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D49" s="11">
-        <v>0.70399999999999996</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="E49" s="11">
-        <v>0.85899999999999999</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="F49" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G49" s="11">
-        <v>-4.8769999999999998</v>
+        <v>-4.8559999999999999</v>
       </c>
       <c r="H49" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="11">
-        <v>9.9599999999999994E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="J49" s="11">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="K49" s="11">
-        <v>0</v>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="K49" s="12">
+        <v>1.68E-6</v>
       </c>
       <c r="L49" s="11">
-        <v>2.1499999999999998E-2</v>
+        <v>0.12</v>
       </c>
       <c r="M49" s="11">
-        <v>0.92600000000000005</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="N49" s="11">
-        <v>105.11499999999999</v>
+        <v>102.06100000000001</v>
       </c>
       <c r="O49" s="11">
-        <v>217289</v>
+        <v>207905</v>
       </c>
       <c r="P49" s="11">
         <v>4</v>
@@ -4706,49 +4723,49 @@
     </row>
     <row r="50" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D50" s="11">
-        <v>0.60099999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E50" s="11">
-        <v>0.72399999999999998</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="F50" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G50" s="11">
-        <v>-4.8559999999999999</v>
+        <v>-5.665</v>
       </c>
       <c r="H50" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="11">
-        <v>4.8599999999999997E-2</v>
+        <v>0.122</v>
       </c>
       <c r="J50" s="11">
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="K50" s="12">
-        <v>1.68E-6</v>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
       </c>
       <c r="L50" s="11">
-        <v>0.12</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="M50" s="11">
-        <v>0.50800000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="N50" s="11">
-        <v>102.06100000000001</v>
+        <v>148.066</v>
       </c>
       <c r="O50" s="11">
-        <v>207905</v>
+        <v>212120</v>
       </c>
       <c r="P50" s="11">
         <v>4</v>
@@ -4756,149 +4773,149 @@
     </row>
     <row r="51" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="11">
-        <v>0.65600000000000003</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="E51" s="11">
-        <v>0.72099999999999997</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="F51" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51" s="11">
-        <v>-5.665</v>
+        <v>-4.9290000000000003</v>
       </c>
       <c r="H51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="11">
-        <v>0.122</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J51" s="11">
-        <v>0.29799999999999999</v>
+        <v>0.218</v>
       </c>
       <c r="K51" s="11">
         <v>0</v>
       </c>
       <c r="L51" s="11">
-        <v>0.17299999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="M51" s="11">
-        <v>0.46800000000000003</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="N51" s="11">
-        <v>148.066</v>
+        <v>134.04499999999999</v>
       </c>
       <c r="O51" s="11">
-        <v>212120</v>
+        <v>228373</v>
       </c>
       <c r="P51" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="11">
-        <v>0.48899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E52" s="11">
-        <v>0.59799999999999998</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="F52" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G52" s="11">
-        <v>-4.9290000000000003</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="H52" s="11">
         <v>1</v>
       </c>
       <c r="I52" s="11">
-        <v>3.5999999999999997E-2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="J52" s="11">
-        <v>0.218</v>
-      </c>
-      <c r="K52" s="11">
-        <v>0</v>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="K52" s="12">
+        <v>5.0699999999999999E-5</v>
       </c>
       <c r="L52" s="11">
-        <v>0.35</v>
+        <v>0.114</v>
       </c>
       <c r="M52" s="11">
-        <v>0.17199999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="N52" s="11">
-        <v>134.04499999999999</v>
+        <v>100.00700000000001</v>
       </c>
       <c r="O52" s="11">
-        <v>228373</v>
+        <v>172800</v>
       </c>
       <c r="P52" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="D53" s="11">
-        <v>0.88</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="E53" s="11">
-        <v>0.42799999999999999</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="F53" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G53" s="11">
-        <v>-8.2799999999999994</v>
+        <v>-2.7490000000000001</v>
       </c>
       <c r="H53" s="11">
         <v>1</v>
       </c>
       <c r="I53" s="11">
-        <v>0.20599999999999999</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="J53" s="11">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="K53" s="12">
-        <v>5.0699999999999999E-5</v>
+        <v>0.191</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
       </c>
       <c r="L53" s="11">
-        <v>0.114</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="M53" s="11">
-        <v>0.33300000000000002</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="N53" s="11">
-        <v>100.00700000000001</v>
+        <v>100.015</v>
       </c>
       <c r="O53" s="11">
-        <v>172800</v>
+        <v>214290</v>
       </c>
       <c r="P53" s="11">
         <v>4</v>
@@ -4906,49 +4923,49 @@
     </row>
     <row r="54" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="D54" s="11">
-        <v>0.68700000000000006</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="E54" s="11">
-        <v>0.79200000000000004</v>
+        <v>0.375</v>
       </c>
       <c r="F54" s="11">
         <v>5</v>
       </c>
       <c r="G54" s="11">
-        <v>-2.7490000000000001</v>
+        <v>-8.2789999999999999</v>
       </c>
       <c r="H54" s="11">
         <v>1</v>
       </c>
       <c r="I54" s="11">
-        <v>4.5199999999999997E-2</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="J54" s="11">
-        <v>0.191</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="K54" s="11">
         <v>0</v>
       </c>
       <c r="L54" s="11">
-        <v>0.16700000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="M54" s="11">
-        <v>0.67100000000000004</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="N54" s="11">
-        <v>100.015</v>
+        <v>91.92</v>
       </c>
       <c r="O54" s="11">
-        <v>214290</v>
+        <v>201000</v>
       </c>
       <c r="P54" s="11">
         <v>4</v>
@@ -4956,49 +4973,49 @@
     </row>
     <row r="55" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="11">
-        <v>0.69799999999999995</v>
+        <v>0.755</v>
       </c>
       <c r="E55" s="11">
-        <v>0.375</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="F55" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G55" s="11">
-        <v>-8.2789999999999999</v>
+        <v>-5.0419999999999998</v>
       </c>
       <c r="H55" s="11">
         <v>1</v>
       </c>
       <c r="I55" s="11">
-        <v>4.9099999999999998E-2</v>
+        <v>0.224</v>
       </c>
       <c r="J55" s="11">
-        <v>0.65200000000000002</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="K55" s="11">
         <v>0</v>
       </c>
       <c r="L55" s="11">
-        <v>0.17299999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="M55" s="11">
-        <v>0.53400000000000003</v>
+        <v>0.755</v>
       </c>
       <c r="N55" s="11">
-        <v>91.92</v>
+        <v>133.12299999999999</v>
       </c>
       <c r="O55" s="11">
-        <v>201000</v>
+        <v>216632</v>
       </c>
       <c r="P55" s="11">
         <v>4</v>
@@ -5006,49 +5023,49 @@
     </row>
     <row r="56" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D56" s="11">
-        <v>0.755</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="E56" s="11">
-        <v>0.59899999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="F56" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="11">
-        <v>-5.0419999999999998</v>
+        <v>-4.3739999999999997</v>
       </c>
       <c r="H56" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>0.224</v>
+        <v>0.128</v>
       </c>
       <c r="J56" s="11">
-        <v>0.14699999999999999</v>
+        <v>6.2199999999999998E-2</v>
       </c>
       <c r="K56" s="11">
         <v>0</v>
       </c>
       <c r="L56" s="11">
-        <v>0.109</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M56" s="11">
-        <v>0.755</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="N56" s="11">
-        <v>133.12299999999999</v>
+        <v>124.949</v>
       </c>
       <c r="O56" s="11">
-        <v>216632</v>
+        <v>204347</v>
       </c>
       <c r="P56" s="11">
         <v>4</v>
@@ -5056,49 +5073,49 @@
     </row>
     <row r="57" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D57" s="11">
-        <v>0.77600000000000002</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="E57" s="11">
-        <v>0.78</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="F57" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G57" s="11">
-        <v>-4.3739999999999997</v>
+        <v>-9.1270000000000007</v>
       </c>
       <c r="H57" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="11">
-        <v>0.128</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="J57" s="11">
-        <v>6.2199999999999998E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="K57" s="11">
         <v>0</v>
       </c>
       <c r="L57" s="11">
-        <v>8.1000000000000003E-2</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="M57" s="11">
-        <v>0.66600000000000004</v>
+        <v>0.376</v>
       </c>
       <c r="N57" s="11">
-        <v>124.949</v>
+        <v>125.97799999999999</v>
       </c>
       <c r="O57" s="11">
-        <v>204347</v>
+        <v>179405</v>
       </c>
       <c r="P57" s="11">
         <v>4</v>
@@ -5106,49 +5123,49 @@
     </row>
     <row r="58" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="11">
-        <v>0.93100000000000005</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="E58" s="11">
-        <v>0.38700000000000001</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="F58" s="11">
         <v>1</v>
       </c>
       <c r="G58" s="11">
-        <v>-9.1270000000000007</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="H58" s="11">
         <v>1</v>
       </c>
       <c r="I58" s="11">
-        <v>0.41199999999999998</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="J58" s="11">
-        <v>8.7999999999999995E-2</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="K58" s="11">
         <v>0</v>
       </c>
       <c r="L58" s="11">
-        <v>0.13600000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="M58" s="11">
-        <v>0.376</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="N58" s="11">
-        <v>125.97799999999999</v>
+        <v>106.04600000000001</v>
       </c>
       <c r="O58" s="11">
-        <v>179405</v>
+        <v>194408</v>
       </c>
       <c r="P58" s="11">
         <v>4</v>
@@ -5156,49 +5173,49 @@
     </row>
     <row r="59" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="11">
-        <v>0.68700000000000006</v>
+        <v>0.752</v>
       </c>
       <c r="E59" s="11">
-        <v>0.78500000000000003</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="F59" s="11">
         <v>1</v>
       </c>
       <c r="G59" s="11">
-        <v>-4.6500000000000004</v>
+        <v>-4.399</v>
       </c>
       <c r="H59" s="11">
         <v>1</v>
       </c>
       <c r="I59" s="11">
-        <v>3.3300000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J59" s="11">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="K59" s="11">
-        <v>0</v>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="K59" s="12">
+        <v>9.4400000000000004E-5</v>
       </c>
       <c r="L59" s="11">
-        <v>0.20300000000000001</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="M59" s="11">
-        <v>0.65500000000000003</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="N59" s="11">
-        <v>106.04600000000001</v>
+        <v>121.958</v>
       </c>
       <c r="O59" s="11">
-        <v>194408</v>
+        <v>163216</v>
       </c>
       <c r="P59" s="11">
         <v>4</v>
@@ -5206,49 +5223,49 @@
     </row>
     <row r="60" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="11">
-        <v>0.752</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="E60" s="11">
-        <v>0.76400000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F60" s="11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G60" s="11">
-        <v>-4.399</v>
+        <v>-6.3659999999999997</v>
       </c>
       <c r="H60" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="11">
-        <v>3.7999999999999999E-2</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="J60" s="11">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="K60" s="12">
-        <v>9.4400000000000004E-5</v>
+        <v>2.64E-3</v>
+      </c>
+      <c r="K60" s="11">
+        <v>0</v>
       </c>
       <c r="L60" s="11">
-        <v>5.4300000000000001E-2</v>
+        <v>0.109</v>
       </c>
       <c r="M60" s="11">
-        <v>0.58199999999999996</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="N60" s="11">
-        <v>121.958</v>
+        <v>155.096</v>
       </c>
       <c r="O60" s="11">
-        <v>163216</v>
+        <v>182707</v>
       </c>
       <c r="P60" s="11">
         <v>4</v>
@@ -5256,49 +5273,49 @@
     </row>
     <row r="61" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="11">
-        <v>0.73199999999999998</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="E61" s="11">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="F61" s="11">
         <v>11</v>
       </c>
       <c r="G61" s="11">
-        <v>-6.3659999999999997</v>
+        <v>-3.6949999999999998</v>
       </c>
       <c r="H61" s="11">
         <v>0</v>
       </c>
       <c r="I61" s="11">
-        <v>0.23100000000000001</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="J61" s="11">
-        <v>2.64E-3</v>
-      </c>
-      <c r="K61" s="11">
-        <v>0</v>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="K61" s="12">
+        <v>2.9300000000000001E-5</v>
       </c>
       <c r="L61" s="11">
-        <v>0.109</v>
+        <v>0.104</v>
       </c>
       <c r="M61" s="11">
-        <v>0.40100000000000002</v>
+        <v>0.82</v>
       </c>
       <c r="N61" s="11">
-        <v>155.096</v>
+        <v>94.013999999999996</v>
       </c>
       <c r="O61" s="11">
-        <v>182707</v>
+        <v>188560</v>
       </c>
       <c r="P61" s="11">
         <v>4</v>
@@ -5306,49 +5323,49 @@
     </row>
     <row r="62" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="B62" s="15">
+        <v>2002</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="11">
-        <v>0.79100000000000004</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="E62" s="11">
-        <v>0.745</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="F62" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G62" s="11">
-        <v>-3.6949999999999998</v>
+        <v>-2.8809999999999998</v>
       </c>
       <c r="H62" s="11">
         <v>0</v>
       </c>
       <c r="I62" s="11">
-        <v>4.6399999999999997E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J62" s="11">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="K62" s="12">
-        <v>2.9300000000000001E-5</v>
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0</v>
       </c>
       <c r="L62" s="11">
-        <v>0.104</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="M62" s="11">
-        <v>0.82</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="N62" s="11">
-        <v>94.013999999999996</v>
+        <v>96.132999999999996</v>
       </c>
       <c r="O62" s="11">
-        <v>188560</v>
+        <v>186987</v>
       </c>
       <c r="P62" s="11">
         <v>4</v>
@@ -5356,49 +5373,49 @@
     </row>
     <row r="63" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63" s="15">
-        <v>2002</v>
+        <v>184</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D63" s="11">
-        <v>0.69699999999999995</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="E63" s="11">
-        <v>0.68300000000000005</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="F63" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G63" s="11">
-        <v>-2.8809999999999998</v>
+        <v>-8.0739999999999998</v>
       </c>
       <c r="H63" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="11">
-        <v>0.11700000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="J63" s="11">
-        <v>3.7199999999999997E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="K63" s="11">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="L63" s="11">
-        <v>0.13700000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="M63" s="11">
-        <v>0.60299999999999998</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="N63" s="11">
-        <v>96.132999999999996</v>
+        <v>154.983</v>
       </c>
       <c r="O63" s="11">
-        <v>186987</v>
+        <v>238614</v>
       </c>
       <c r="P63" s="11">
         <v>4</v>
@@ -5406,49 +5423,49 @@
     </row>
     <row r="64" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D64" s="11">
-        <v>0.91200000000000003</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="E64" s="11">
-        <v>0.41199999999999998</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="F64" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G64" s="11">
-        <v>-8.0739999999999998</v>
+        <v>-9.74</v>
       </c>
       <c r="H64" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="11">
-        <v>0.124</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="J64" s="11">
-        <v>1.6400000000000001E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="K64" s="11">
-        <v>1.2999999999999999E-2</v>
+        <v>1.5200000000000001E-4</v>
       </c>
       <c r="L64" s="11">
-        <v>0.104</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="M64" s="11">
-        <v>0.42199999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="N64" s="11">
-        <v>154.983</v>
+        <v>131.036</v>
       </c>
       <c r="O64" s="11">
-        <v>238614</v>
+        <v>146520</v>
       </c>
       <c r="P64" s="11">
         <v>4</v>
@@ -5456,49 +5473,49 @@
     </row>
     <row r="65" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="D65" s="11">
-        <v>0.79700000000000004</v>
+        <v>0.622</v>
       </c>
       <c r="E65" s="11">
-        <v>0.53300000000000003</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="F65" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G65" s="11">
-        <v>-9.74</v>
+        <v>-7.3209999999999997</v>
       </c>
       <c r="H65" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="11">
-        <v>4.1200000000000001E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J65" s="11">
-        <v>1.72E-2</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="K65" s="11">
-        <v>1.5200000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="L65" s="11">
-        <v>0.10299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="M65" s="11">
-        <v>0.32900000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="N65" s="11">
-        <v>131.036</v>
+        <v>140.02500000000001</v>
       </c>
       <c r="O65" s="11">
-        <v>146520</v>
+        <v>211360</v>
       </c>
       <c r="P65" s="11">
         <v>4</v>
@@ -5506,49 +5523,49 @@
     </row>
     <row r="66" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="D66" s="11">
-        <v>0.622</v>
+        <v>0.52</v>
       </c>
       <c r="E66" s="11">
-        <v>0.71199999999999997</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="F66" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" s="11">
-        <v>-7.3209999999999997</v>
+        <v>-3.093</v>
       </c>
       <c r="H66" s="11">
         <v>1</v>
       </c>
       <c r="I66" s="11">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="J66" s="11">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="K66" s="11">
-        <v>0</v>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="K66" s="12">
+        <v>4.9599999999999999E-6</v>
       </c>
       <c r="L66" s="11">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="M66" s="11">
-        <v>0.48699999999999999</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="N66" s="11">
-        <v>140.02500000000001</v>
+        <v>141.971</v>
       </c>
       <c r="O66" s="11">
-        <v>211360</v>
+        <v>180823</v>
       </c>
       <c r="P66" s="11">
         <v>4</v>
@@ -5556,49 +5573,49 @@
     </row>
     <row r="67" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D67" s="11">
-        <v>0.52</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E67" s="11">
-        <v>0.76100000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="F67" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G67" s="11">
-        <v>-3.093</v>
+        <v>-5.9340000000000002</v>
       </c>
       <c r="H67" s="11">
         <v>1</v>
       </c>
       <c r="I67" s="11">
-        <v>8.5300000000000001E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="J67" s="11">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="K67" s="12">
-        <v>4.9599999999999999E-6</v>
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K67" s="13">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="L67" s="11">
-        <v>0.17</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="M67" s="11">
-        <v>0.28599999999999998</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="N67" s="11">
-        <v>141.971</v>
+        <v>145.03100000000001</v>
       </c>
       <c r="O67" s="11">
-        <v>180823</v>
+        <v>197547</v>
       </c>
       <c r="P67" s="11">
         <v>4</v>
@@ -5606,49 +5623,49 @@
     </row>
     <row r="68" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="D68" s="11">
-        <v>0.60199999999999998</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="E68" s="11">
-        <v>0.65800000000000003</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="F68" s="11">
         <v>1</v>
       </c>
       <c r="G68" s="11">
-        <v>-5.9340000000000002</v>
+        <v>-4.3230000000000004</v>
       </c>
       <c r="H68" s="11">
         <v>1</v>
       </c>
       <c r="I68" s="11">
-        <v>5.5800000000000002E-2</v>
+        <v>7.85E-2</v>
       </c>
       <c r="J68" s="11">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K68" s="13">
-        <v>6.0000000000000002E-5</v>
+        <v>4.82E-2</v>
+      </c>
+      <c r="K68" s="11">
+        <v>0</v>
       </c>
       <c r="L68" s="11">
-        <v>0.23699999999999999</v>
+        <v>7.5300000000000006E-2</v>
       </c>
       <c r="M68" s="11">
-        <v>0.26800000000000002</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="N68" s="11">
-        <v>145.03100000000001</v>
+        <v>170.01900000000001</v>
       </c>
       <c r="O68" s="11">
-        <v>197547</v>
+        <v>220117</v>
       </c>
       <c r="P68" s="11">
         <v>4</v>
@@ -5656,49 +5673,49 @@
     </row>
     <row r="69" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="11">
-        <v>0.68100000000000005</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="E69" s="11">
-        <v>0.78800000000000003</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F69" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G69" s="11">
-        <v>-4.3230000000000004</v>
+        <v>-5.8920000000000003</v>
       </c>
       <c r="H69" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="11">
-        <v>7.85E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="J69" s="11">
-        <v>4.82E-2</v>
-      </c>
-      <c r="K69" s="11">
-        <v>0</v>
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="K69" s="14">
+        <v>3.8E-6</v>
       </c>
       <c r="L69" s="11">
-        <v>7.5300000000000006E-2</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="M69" s="11">
-        <v>0.83899999999999997</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="N69" s="11">
-        <v>170.01900000000001</v>
+        <v>93.95</v>
       </c>
       <c r="O69" s="11">
-        <v>220117</v>
+        <v>194680</v>
       </c>
       <c r="P69" s="11">
         <v>4</v>
@@ -5706,49 +5723,49 @@
     </row>
     <row r="70" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="D70" s="11">
-        <v>0.63100000000000001</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="E70" s="11">
-        <v>0.64900000000000002</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="F70" s="11">
         <v>5</v>
       </c>
       <c r="G70" s="11">
-        <v>-5.8920000000000003</v>
+        <v>-5.1310000000000002</v>
       </c>
       <c r="H70" s="11">
         <v>0</v>
       </c>
       <c r="I70" s="11">
-        <v>3.85E-2</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="J70" s="11">
-        <v>8.1699999999999995E-2</v>
-      </c>
-      <c r="K70" s="14">
-        <v>3.8E-6</v>
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="K70" s="12">
+        <v>5.66E-6</v>
       </c>
       <c r="L70" s="11">
-        <v>9.3399999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M70" s="11">
-        <v>0.42099999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="N70" s="11">
-        <v>93.95</v>
+        <v>110.001</v>
       </c>
       <c r="O70" s="11">
-        <v>194680</v>
+        <v>199849</v>
       </c>
       <c r="P70" s="11">
         <v>4</v>
@@ -5756,49 +5773,49 @@
     </row>
     <row r="71" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="D71" s="11">
-        <v>0.79900000000000004</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="E71" s="11">
-        <v>0.59699999999999998</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="F71" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G71" s="11">
-        <v>-5.1310000000000002</v>
+        <v>-4.2060000000000004</v>
       </c>
       <c r="H71" s="11">
         <v>0</v>
       </c>
       <c r="I71" s="11">
-        <v>6.1100000000000002E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="J71" s="11">
-        <v>7.8799999999999995E-2</v>
+        <v>0.153</v>
       </c>
       <c r="K71" s="12">
-        <v>5.66E-6</v>
+        <v>3.3299999999999999E-6</v>
       </c>
       <c r="L71" s="11">
-        <v>0.1</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="M71" s="11">
-        <v>0.41899999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="N71" s="11">
-        <v>110.001</v>
+        <v>95.947999999999993</v>
       </c>
       <c r="O71" s="11">
-        <v>199849</v>
+        <v>212500</v>
       </c>
       <c r="P71" s="11">
         <v>4</v>
@@ -5806,49 +5823,49 @@
     </row>
     <row r="72" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="11">
-        <v>0.84099999999999997</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="E72" s="11">
-        <v>0.79800000000000004</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="F72" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G72" s="11">
-        <v>-4.2060000000000004</v>
+        <v>-4.1539999999999999</v>
       </c>
       <c r="H72" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="11">
-        <v>0.22900000000000001</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="J72" s="11">
-        <v>0.153</v>
-      </c>
-      <c r="K72" s="12">
-        <v>3.3299999999999999E-6</v>
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0</v>
       </c>
       <c r="L72" s="11">
-        <v>6.1800000000000001E-2</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="M72" s="11">
-        <v>0.59099999999999997</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="N72" s="11">
-        <v>95.947999999999993</v>
+        <v>103.07299999999999</v>
       </c>
       <c r="O72" s="11">
-        <v>212500</v>
+        <v>174800</v>
       </c>
       <c r="P72" s="11">
         <v>4</v>
@@ -5856,49 +5873,49 @@
     </row>
     <row r="73" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="11">
-        <v>0.66300000000000003</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="E73" s="11">
-        <v>0.70799999999999996</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F73" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G73" s="11">
-        <v>-4.1539999999999999</v>
+        <v>-5.1150000000000002</v>
       </c>
       <c r="H73" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="11">
-        <v>4.7300000000000002E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="J73" s="11">
-        <v>3.3700000000000001E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="K73" s="11">
-        <v>0</v>
+        <v>1.13E-4</v>
       </c>
       <c r="L73" s="11">
-        <v>8.4099999999999994E-2</v>
+        <v>7.17E-2</v>
       </c>
       <c r="M73" s="11">
-        <v>0.74199999999999999</v>
+        <v>0.754</v>
       </c>
       <c r="N73" s="11">
-        <v>103.07299999999999</v>
+        <v>79.028000000000006</v>
       </c>
       <c r="O73" s="11">
-        <v>174800</v>
+        <v>163253</v>
       </c>
       <c r="P73" s="11">
         <v>4</v>
@@ -5906,49 +5923,49 @@
     </row>
     <row r="74" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="D74" s="11">
-        <v>0.80100000000000005</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="E74" s="11">
-        <v>0.79500000000000004</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="F74" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="11">
-        <v>-5.1150000000000002</v>
+        <v>-4.9790000000000001</v>
       </c>
       <c r="H74" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="11">
-        <v>5.04E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="J74" s="11">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="K74" s="11">
-        <v>1.13E-4</v>
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="K74" s="12">
+        <v>2.1699999999999999E-5</v>
       </c>
       <c r="L74" s="11">
-        <v>7.17E-2</v>
+        <v>0.111</v>
       </c>
       <c r="M74" s="11">
-        <v>0.754</v>
+        <v>0.188</v>
       </c>
       <c r="N74" s="11">
-        <v>79.028000000000006</v>
+        <v>100.584</v>
       </c>
       <c r="O74" s="11">
-        <v>163253</v>
+        <v>211440</v>
       </c>
       <c r="P74" s="11">
         <v>4</v>
@@ -5956,49 +5973,49 @@
     </row>
     <row r="75" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="D75" s="11">
-        <v>0.73499999999999999</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E75" s="11">
-        <v>0.67700000000000005</v>
+        <v>0.628</v>
       </c>
       <c r="F75" s="11">
         <v>2</v>
       </c>
       <c r="G75" s="11">
-        <v>-4.9790000000000001</v>
+        <v>-5.4560000000000004</v>
       </c>
       <c r="H75" s="11">
         <v>1</v>
       </c>
       <c r="I75" s="11">
-        <v>9.2999999999999999E-2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="J75" s="11">
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="K75" s="12">
-        <v>2.1699999999999999E-5</v>
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="K75" s="11">
+        <v>0</v>
       </c>
       <c r="L75" s="11">
-        <v>0.111</v>
+        <v>0.108</v>
       </c>
       <c r="M75" s="11">
-        <v>0.188</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="N75" s="11">
-        <v>100.584</v>
+        <v>145.905</v>
       </c>
       <c r="O75" s="11">
-        <v>211440</v>
+        <v>276147</v>
       </c>
       <c r="P75" s="11">
         <v>4</v>
@@ -6006,49 +6023,49 @@
     </row>
     <row r="76" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="11">
-        <v>0.90900000000000003</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E76" s="11">
-        <v>0.628</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="F76" s="11">
         <v>2</v>
       </c>
       <c r="G76" s="11">
-        <v>-5.4560000000000004</v>
+        <v>-6.343</v>
       </c>
       <c r="H76" s="11">
         <v>1</v>
       </c>
       <c r="I76" s="11">
-        <v>0.20100000000000001</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="J76" s="11">
-        <v>7.3899999999999993E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="K76" s="11">
         <v>0</v>
       </c>
       <c r="L76" s="11">
-        <v>0.108</v>
+        <v>0.308</v>
       </c>
       <c r="M76" s="11">
-        <v>0.40600000000000003</v>
+        <v>0.191</v>
       </c>
       <c r="N76" s="11">
-        <v>145.905</v>
+        <v>87.908000000000001</v>
       </c>
       <c r="O76" s="11">
-        <v>276147</v>
+        <v>268867</v>
       </c>
       <c r="P76" s="11">
         <v>4</v>
@@ -6056,49 +6073,49 @@
     </row>
     <row r="77" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="D77" s="11">
-        <v>0.58899999999999997</v>
+        <v>0.67</v>
       </c>
       <c r="E77" s="11">
-        <v>0.73099999999999998</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="F77" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G77" s="11">
-        <v>-6.343</v>
+        <v>-5.944</v>
       </c>
       <c r="H77" s="11">
         <v>1</v>
       </c>
       <c r="I77" s="11">
-        <v>8.6800000000000002E-2</v>
+        <v>0.153</v>
       </c>
       <c r="J77" s="11">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="K77" s="11">
-        <v>0</v>
+        <v>0.627</v>
+      </c>
+      <c r="K77" s="12">
+        <v>1.02E-6</v>
       </c>
       <c r="L77" s="11">
-        <v>0.308</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="M77" s="11">
-        <v>0.191</v>
+        <v>0.438</v>
       </c>
       <c r="N77" s="11">
-        <v>87.908000000000001</v>
+        <v>180.024</v>
       </c>
       <c r="O77" s="11">
-        <v>268867</v>
+        <v>227533</v>
       </c>
       <c r="P77" s="11">
         <v>4</v>
@@ -6106,49 +6123,49 @@
     </row>
     <row r="78" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D78" s="11">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="E78" s="11">
-        <v>0.65400000000000003</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="F78" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G78" s="11">
-        <v>-5.944</v>
+        <v>-4.1829999999999998</v>
       </c>
       <c r="H78" s="11">
         <v>1</v>
       </c>
       <c r="I78" s="11">
-        <v>0.153</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="J78" s="11">
-        <v>0.627</v>
-      </c>
-      <c r="K78" s="12">
-        <v>1.02E-6</v>
+        <v>0.215</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0</v>
       </c>
       <c r="L78" s="11">
-        <v>7.0999999999999994E-2</v>
+        <v>0.253</v>
       </c>
       <c r="M78" s="11">
-        <v>0.438</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="N78" s="11">
-        <v>180.024</v>
+        <v>123.146</v>
       </c>
       <c r="O78" s="11">
-        <v>227533</v>
+        <v>220293</v>
       </c>
       <c r="P78" s="11">
         <v>4</v>
@@ -6156,49 +6173,49 @@
     </row>
     <row r="79" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="D79" s="11">
-        <v>0.63</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="E79" s="11">
-        <v>0.80400000000000005</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="F79" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G79" s="11">
-        <v>-4.1829999999999998</v>
+        <v>-3.1120000000000001</v>
       </c>
       <c r="H79" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="11">
-        <v>3.6299999999999999E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="J79" s="11">
-        <v>0.215</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K79" s="11">
         <v>0</v>
       </c>
       <c r="L79" s="11">
-        <v>0.253</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="M79" s="11">
-        <v>0.49199999999999999</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="N79" s="11">
-        <v>123.146</v>
+        <v>94.968000000000004</v>
       </c>
       <c r="O79" s="11">
-        <v>220293</v>
+        <v>201526</v>
       </c>
       <c r="P79" s="11">
         <v>4</v>
@@ -6206,49 +6223,49 @@
     </row>
     <row r="80" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="11">
-        <v>0.79200000000000004</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="E80" s="11">
-        <v>0.89500000000000002</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="F80" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="11">
-        <v>-3.1120000000000001</v>
+        <v>-3.0230000000000001</v>
       </c>
       <c r="H80" s="11">
         <v>0</v>
       </c>
       <c r="I80" s="11">
-        <v>5.8900000000000001E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="J80" s="11">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K80" s="11">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="K80" s="12">
+        <v>9.3300000000000005E-5</v>
       </c>
       <c r="L80" s="11">
-        <v>5.0099999999999999E-2</v>
+        <v>0.255</v>
       </c>
       <c r="M80" s="11">
-        <v>0.79400000000000004</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="N80" s="11">
-        <v>94.968000000000004</v>
+        <v>79.997</v>
       </c>
       <c r="O80" s="11">
-        <v>201526</v>
+        <v>232550</v>
       </c>
       <c r="P80" s="11">
         <v>4</v>
@@ -6256,49 +6273,49 @@
     </row>
     <row r="81" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="11">
-        <v>0.81399999999999995</v>
+        <v>0.876</v>
       </c>
       <c r="E81" s="11">
-        <v>0.81299999999999994</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="F81" s="11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G81" s="11">
-        <v>-3.0230000000000001</v>
+        <v>-6.5309999999999997</v>
       </c>
       <c r="H81" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="11">
-        <v>5.6099999999999997E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="J81" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="K81" s="12">
-        <v>9.3300000000000005E-5</v>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
       </c>
       <c r="L81" s="11">
-        <v>0.255</v>
+        <v>0.108</v>
       </c>
       <c r="M81" s="11">
-        <v>0.83899999999999997</v>
+        <v>0.158</v>
       </c>
       <c r="N81" s="11">
-        <v>79.997</v>
+        <v>94.980999999999995</v>
       </c>
       <c r="O81" s="11">
-        <v>232550</v>
+        <v>175230</v>
       </c>
       <c r="P81" s="11">
         <v>4</v>
@@ -6306,49 +6323,49 @@
     </row>
     <row r="82" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="11">
-        <v>0.876</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="E82" s="11">
-        <v>0.51900000000000002</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F82" s="11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G82" s="11">
-        <v>-6.5309999999999997</v>
+        <v>-10.109</v>
       </c>
       <c r="H82" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="11">
-        <v>0.14299999999999999</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="J82" s="11">
-        <v>0.20200000000000001</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="K82" s="11">
         <v>0</v>
       </c>
       <c r="L82" s="11">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="M82" s="11">
-        <v>0.158</v>
+        <v>0.12</v>
       </c>
       <c r="N82" s="11">
-        <v>94.980999999999995</v>
+        <v>115.28400000000001</v>
       </c>
       <c r="O82" s="11">
-        <v>175230</v>
+        <v>200186</v>
       </c>
       <c r="P82" s="11">
         <v>4</v>
@@ -6356,49 +6373,49 @@
     </row>
     <row r="83" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D83" s="11">
-        <v>0.35099999999999998</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="E83" s="11">
-        <v>0.29599999999999999</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F83" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83" s="11">
-        <v>-10.109</v>
+        <v>-5.4740000000000002</v>
       </c>
       <c r="H83" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="11">
-        <v>3.3300000000000003E-2</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="J83" s="11">
-        <v>0.93400000000000005</v>
+        <v>2.99E-3</v>
       </c>
       <c r="K83" s="11">
         <v>0</v>
       </c>
       <c r="L83" s="11">
-        <v>9.5000000000000001E-2</v>
+        <v>0.159</v>
       </c>
       <c r="M83" s="11">
-        <v>0.12</v>
+        <v>0.498</v>
       </c>
       <c r="N83" s="11">
-        <v>115.28400000000001</v>
+        <v>181.96700000000001</v>
       </c>
       <c r="O83" s="11">
-        <v>200186</v>
+        <v>190288</v>
       </c>
       <c r="P83" s="11">
         <v>4</v>
@@ -6406,49 +6423,49 @@
     </row>
     <row r="84" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="D84" s="11">
-        <v>0.81499999999999995</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="E84" s="11">
-        <v>0.81599999999999995</v>
+        <v>0.621</v>
       </c>
       <c r="F84" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="11">
-        <v>-5.4740000000000002</v>
+        <v>-6.6379999999999999</v>
       </c>
       <c r="H84" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" s="11">
-        <v>0.26900000000000002</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="J84" s="11">
-        <v>2.99E-3</v>
-      </c>
-      <c r="K84" s="11">
-        <v>0</v>
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="K84" s="12">
+        <v>5.3900000000000002E-5</v>
       </c>
       <c r="L84" s="11">
-        <v>0.159</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="M84" s="11">
-        <v>0.498</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="N84" s="11">
-        <v>181.96700000000001</v>
+        <v>150.011</v>
       </c>
       <c r="O84" s="11">
-        <v>190288</v>
+        <v>177000</v>
       </c>
       <c r="P84" s="11">
         <v>4</v>
@@ -6456,49 +6473,49 @@
     </row>
     <row r="85" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="D85" s="11">
-        <v>0.90800000000000003</v>
+        <v>0.754</v>
       </c>
       <c r="E85" s="11">
-        <v>0.621</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="F85" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G85" s="11">
-        <v>-6.6379999999999999</v>
+        <v>-4.2489999999999997</v>
       </c>
       <c r="H85" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" s="11">
-        <v>0.10199999999999999</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="J85" s="11">
-        <v>2.8200000000000002E-4</v>
-      </c>
-      <c r="K85" s="12">
-        <v>5.3900000000000002E-5</v>
+        <v>0.315</v>
+      </c>
+      <c r="K85" s="11">
+        <v>0</v>
       </c>
       <c r="L85" s="11">
-        <v>9.5799999999999996E-2</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="M85" s="11">
-        <v>0.42099999999999999</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="N85" s="11">
-        <v>150.011</v>
+        <v>93.983000000000004</v>
       </c>
       <c r="O85" s="11">
-        <v>177000</v>
+        <v>176133</v>
       </c>
       <c r="P85" s="11">
         <v>4</v>
@@ -6506,149 +6523,149 @@
     </row>
     <row r="86" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="D86" s="11">
-        <v>0.754</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="E86" s="11">
-        <v>0.80500000000000005</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="F86" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G86" s="11">
-        <v>-4.2489999999999997</v>
+        <v>-7.3650000000000002</v>
       </c>
       <c r="H86" s="11">
         <v>1</v>
       </c>
       <c r="I86" s="11">
-        <v>7.5200000000000003E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="J86" s="11">
-        <v>0.315</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="K86" s="11">
         <v>0</v>
       </c>
       <c r="L86" s="11">
-        <v>0.20300000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="M86" s="11">
-        <v>0.55500000000000005</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="N86" s="11">
-        <v>93.983000000000004</v>
+        <v>94.992000000000004</v>
       </c>
       <c r="O86" s="11">
-        <v>176133</v>
+        <v>259550</v>
       </c>
       <c r="P86" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="D87" s="11">
-        <v>0.58699999999999997</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="E87" s="11">
-        <v>0.29899999999999999</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="F87" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G87" s="11">
-        <v>-7.3650000000000002</v>
+        <v>-6.0730000000000004</v>
       </c>
       <c r="H87" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" s="11">
-        <v>2.63E-2</v>
+        <v>0.247</v>
       </c>
       <c r="J87" s="11">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="K87" s="11">
-        <v>0</v>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="K87" s="12">
+        <v>1.47E-5</v>
       </c>
       <c r="L87" s="11">
-        <v>0.123</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="M87" s="11">
-        <v>0.35599999999999998</v>
+        <v>0.748</v>
       </c>
       <c r="N87" s="11">
-        <v>94.992000000000004</v>
+        <v>198.07499999999999</v>
       </c>
       <c r="O87" s="11">
-        <v>259550</v>
+        <v>184720</v>
       </c>
       <c r="P87" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>248</v>
+        <v>90</v>
       </c>
       <c r="D88" s="11">
-        <v>0.72199999999999998</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="E88" s="11">
-        <v>0.73799999999999999</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="F88" s="11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G88" s="11">
-        <v>-6.0730000000000004</v>
+        <v>-6.351</v>
       </c>
       <c r="H88" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" s="11">
-        <v>0.247</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="J88" s="11">
-        <v>0.32800000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="K88" s="12">
-        <v>1.47E-5</v>
+        <v>1.66E-5</v>
       </c>
       <c r="L88" s="11">
-        <v>0.19800000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="M88" s="11">
-        <v>0.748</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="N88" s="11">
-        <v>198.07499999999999</v>
+        <v>136.94900000000001</v>
       </c>
       <c r="O88" s="11">
-        <v>184720</v>
+        <v>202547</v>
       </c>
       <c r="P88" s="11">
         <v>4</v>
@@ -6656,49 +6673,49 @@
     </row>
     <row r="89" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="D89" s="11">
-        <v>0.79800000000000004</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="E89" s="11">
-        <v>0.53900000000000003</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="F89" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G89" s="11">
-        <v>-6.351</v>
+        <v>-7.11</v>
       </c>
       <c r="H89" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="11">
-        <v>4.2099999999999999E-2</v>
+        <v>6.0699999999999997E-2</v>
       </c>
       <c r="J89" s="11">
-        <v>0.19900000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K89" s="12">
-        <v>1.66E-5</v>
+        <v>3.9700000000000003E-5</v>
       </c>
       <c r="L89" s="11">
-        <v>0.16500000000000001</v>
+        <v>9.3700000000000006E-2</v>
       </c>
       <c r="M89" s="11">
-        <v>0.39400000000000002</v>
+        <v>0.626</v>
       </c>
       <c r="N89" s="11">
-        <v>136.94900000000001</v>
+        <v>98.015000000000001</v>
       </c>
       <c r="O89" s="11">
-        <v>202547</v>
+        <v>226800</v>
       </c>
       <c r="P89" s="11">
         <v>4</v>
@@ -6706,49 +6723,49 @@
     </row>
     <row r="90" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D90" s="11">
-        <v>0.85499999999999998</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="E90" s="11">
-        <v>0.66400000000000003</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="F90" s="11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G90" s="11">
-        <v>-7.11</v>
+        <v>-4.9850000000000003</v>
       </c>
       <c r="H90" s="11">
         <v>0</v>
       </c>
       <c r="I90" s="11">
-        <v>6.0699999999999997E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J90" s="11">
-        <v>0.16500000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="K90" s="12">
-        <v>3.9700000000000003E-5</v>
+        <v>7.2600000000000003E-5</v>
       </c>
       <c r="L90" s="11">
-        <v>9.3700000000000006E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="M90" s="11">
-        <v>0.626</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="N90" s="11">
-        <v>98.015000000000001</v>
+        <v>166.00800000000001</v>
       </c>
       <c r="O90" s="11">
-        <v>226800</v>
+        <v>193456</v>
       </c>
       <c r="P90" s="11">
         <v>4</v>
@@ -6756,49 +6773,49 @@
     </row>
     <row r="91" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="11">
-        <v>0.77500000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E91" s="11">
-        <v>0.67900000000000005</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="F91" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91" s="11">
-        <v>-4.9850000000000003</v>
+        <v>-6.6879999999999997</v>
       </c>
       <c r="H91" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="11">
-        <v>0.13500000000000001</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="J91" s="11">
-        <v>0.18</v>
-      </c>
-      <c r="K91" s="12">
-        <v>7.2600000000000003E-5</v>
+        <v>0.128</v>
+      </c>
+      <c r="K91" s="11">
+        <v>1.47E-4</v>
       </c>
       <c r="L91" s="11">
-        <v>6.8000000000000005E-2</v>
+        <v>0.127</v>
       </c>
       <c r="M91" s="11">
-        <v>0.61899999999999999</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="N91" s="11">
-        <v>166.00800000000001</v>
+        <v>94.016000000000005</v>
       </c>
       <c r="O91" s="11">
-        <v>193456</v>
+        <v>197120</v>
       </c>
       <c r="P91" s="11">
         <v>4</v>
@@ -6806,49 +6823,49 @@
     </row>
     <row r="92" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="D92" s="11">
-        <v>0.90900000000000003</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="E92" s="11">
-        <v>0.49299999999999999</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="F92" s="11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G92" s="11">
-        <v>-6.6879999999999997</v>
+        <v>-5.9909999999999997</v>
       </c>
       <c r="H92" s="11">
         <v>1</v>
       </c>
       <c r="I92" s="11">
-        <v>7.3499999999999996E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="J92" s="11">
-        <v>0.128</v>
-      </c>
-      <c r="K92" s="11">
-        <v>1.47E-4</v>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="K92" s="12">
+        <v>4.9100000000000004E-6</v>
       </c>
       <c r="L92" s="11">
-        <v>0.127</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="M92" s="11">
-        <v>0.84399999999999997</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="N92" s="11">
-        <v>94.016000000000005</v>
+        <v>123.07</v>
       </c>
       <c r="O92" s="11">
-        <v>197120</v>
+        <v>213309</v>
       </c>
       <c r="P92" s="11">
         <v>4</v>
@@ -6856,49 +6873,49 @@
     </row>
     <row r="93" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="D93" s="11">
-        <v>0.78100000000000003</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="E93" s="11">
-        <v>0.76800000000000002</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="F93" s="11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G93" s="11">
-        <v>-5.9909999999999997</v>
+        <v>-9.3089999999999993</v>
       </c>
       <c r="H93" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="11">
-        <v>3.9399999999999998E-2</v>
+        <v>0.53</v>
       </c>
       <c r="J93" s="11">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="K93" s="12">
-        <v>4.9100000000000004E-6</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
       </c>
       <c r="L93" s="11">
-        <v>0.32500000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="M93" s="11">
-        <v>0.48599999999999999</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="N93" s="11">
-        <v>123.07</v>
+        <v>119.958</v>
       </c>
       <c r="O93" s="11">
-        <v>213309</v>
+        <v>142273</v>
       </c>
       <c r="P93" s="11">
         <v>4</v>
@@ -6906,49 +6923,49 @@
     </row>
     <row r="94" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="11">
-        <v>0.96399999999999997</v>
+        <v>0.752</v>
       </c>
       <c r="E94" s="11">
-        <v>0.34599999999999997</v>
+        <v>0.505</v>
       </c>
       <c r="F94" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G94" s="11">
-        <v>-9.3089999999999993</v>
+        <v>-7.6210000000000004</v>
       </c>
       <c r="H94" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="11">
-        <v>0.53</v>
+        <v>0.253</v>
       </c>
       <c r="J94" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K94" s="11">
-        <v>0</v>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="K94" s="12">
+        <v>2.5500000000000001E-6</v>
       </c>
       <c r="L94" s="11">
-        <v>0.108</v>
+        <v>0.104</v>
       </c>
       <c r="M94" s="11">
-        <v>0.56200000000000006</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="N94" s="11">
-        <v>119.958</v>
+        <v>91.97</v>
       </c>
       <c r="O94" s="11">
-        <v>142273</v>
+        <v>197437</v>
       </c>
       <c r="P94" s="11">
         <v>4</v>
@@ -6956,49 +6973,49 @@
     </row>
     <row r="95" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="11">
-        <v>0.752</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="E95" s="11">
-        <v>0.505</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="F95" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G95" s="11">
-        <v>-7.6210000000000004</v>
+        <v>-7.2759999999999998</v>
       </c>
       <c r="H95" s="11">
         <v>1</v>
       </c>
       <c r="I95" s="11">
-        <v>0.253</v>
+        <v>0.186</v>
       </c>
       <c r="J95" s="11">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="K95" s="12">
-        <v>2.5500000000000001E-6</v>
+        <v>5.8300000000000001E-3</v>
+      </c>
+      <c r="K95" s="11">
+        <v>1.15E-4</v>
       </c>
       <c r="L95" s="11">
-        <v>0.104</v>
+        <v>4.24E-2</v>
       </c>
       <c r="M95" s="11">
-        <v>0.41899999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="N95" s="11">
-        <v>91.97</v>
+        <v>191.702</v>
       </c>
       <c r="O95" s="11">
-        <v>197437</v>
+        <v>234707</v>
       </c>
       <c r="P95" s="11">
         <v>4</v>
@@ -7006,49 +7023,49 @@
     </row>
     <row r="96" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="D96" s="11">
-        <v>0.28399999999999997</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="E96" s="11">
-        <v>0.70399999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F96" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G96" s="11">
-        <v>-7.2759999999999998</v>
+        <v>-7.0659999999999998</v>
       </c>
       <c r="H96" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="11">
-        <v>0.186</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="J96" s="11">
-        <v>5.8300000000000001E-3</v>
-      </c>
-      <c r="K96" s="11">
-        <v>1.15E-4</v>
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="K96" s="12">
+        <v>2.1399999999999998E-5</v>
       </c>
       <c r="L96" s="11">
-        <v>4.24E-2</v>
+        <v>0.112</v>
       </c>
       <c r="M96" s="11">
-        <v>0.1</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="N96" s="11">
-        <v>191.702</v>
+        <v>129.953</v>
       </c>
       <c r="O96" s="11">
-        <v>234707</v>
+        <v>95467</v>
       </c>
       <c r="P96" s="11">
         <v>4</v>
@@ -7056,49 +7073,49 @@
     </row>
     <row r="97" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="D97" s="11">
-        <v>0.73399999999999999</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="E97" s="11">
-        <v>0.56999999999999995</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="F97" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G97" s="11">
-        <v>-7.0659999999999998</v>
+        <v>-7.0049999999999999</v>
       </c>
       <c r="H97" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="11">
-        <v>0.13300000000000001</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="J97" s="11">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="K97" s="12">
-        <v>2.1399999999999998E-5</v>
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="K97" s="11">
+        <v>0</v>
       </c>
       <c r="L97" s="11">
-        <v>0.112</v>
+        <v>0.122</v>
       </c>
       <c r="M97" s="11">
-        <v>0.68899999999999995</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="N97" s="11">
-        <v>129.953</v>
+        <v>125.04600000000001</v>
       </c>
       <c r="O97" s="11">
-        <v>95467</v>
+        <v>217440</v>
       </c>
       <c r="P97" s="11">
         <v>4</v>
@@ -7106,49 +7123,49 @@
     </row>
     <row r="98" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="D98" s="11">
-        <v>0.68400000000000005</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="E98" s="11">
-        <v>0.61899999999999999</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="F98" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G98" s="11">
-        <v>-7.0049999999999999</v>
+        <v>-6.3179999999999996</v>
       </c>
       <c r="H98" s="11">
         <v>1</v>
       </c>
       <c r="I98" s="11">
-        <v>3.8600000000000002E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="J98" s="11">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="K98" s="11">
-        <v>0</v>
+        <v>0.245</v>
+      </c>
+      <c r="K98" s="12">
+        <v>3.7699999999999999E-6</v>
       </c>
       <c r="L98" s="11">
-        <v>0.122</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="M98" s="11">
-        <v>0.28399999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="N98" s="11">
-        <v>125.04600000000001</v>
+        <v>105.07599999999999</v>
       </c>
       <c r="O98" s="11">
-        <v>217440</v>
+        <v>205748</v>
       </c>
       <c r="P98" s="11">
         <v>4</v>
@@ -7156,208 +7173,155 @@
     </row>
     <row r="99" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="D99" s="11">
-        <v>0.63800000000000001</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="E99" s="11">
-        <v>0.65800000000000003</v>
+        <v>0.76</v>
       </c>
       <c r="F99" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G99" s="11">
-        <v>-6.3179999999999996</v>
+        <v>-4.7060000000000004</v>
       </c>
       <c r="H99" s="11">
         <v>1</v>
       </c>
       <c r="I99" s="11">
-        <v>4.5600000000000002E-2</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="J99" s="11">
-        <v>0.245</v>
-      </c>
-      <c r="K99" s="12">
-        <v>3.7699999999999999E-6</v>
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="K99" s="11">
+        <v>0</v>
       </c>
       <c r="L99" s="11">
-        <v>9.1899999999999996E-2</v>
+        <v>8.6499999999999994E-2</v>
       </c>
       <c r="M99" s="11">
-        <v>0.33</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="N99" s="11">
-        <v>105.07599999999999</v>
+        <v>135.702</v>
       </c>
       <c r="O99" s="11">
-        <v>205748</v>
+        <v>260000</v>
       </c>
       <c r="P99" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="11">
-        <v>0.55200000000000005</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="E100" s="11">
-        <v>0.76</v>
+        <v>0.437</v>
       </c>
       <c r="F100" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G100" s="11">
-        <v>-4.7060000000000004</v>
+        <v>-6.593</v>
       </c>
       <c r="H100" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" s="11">
-        <v>0.34200000000000003</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J100" s="11">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="K100" s="11">
-        <v>0</v>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K100" s="12">
+        <v>1.2699999999999999E-6</v>
       </c>
       <c r="L100" s="11">
-        <v>8.6499999999999994E-2</v>
+        <v>0.106</v>
       </c>
       <c r="M100" s="11">
-        <v>0.63900000000000001</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="N100" s="11">
-        <v>135.702</v>
+        <v>180.04300000000001</v>
       </c>
       <c r="O100" s="11">
-        <v>260000</v>
+        <v>239000</v>
       </c>
       <c r="P100" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="11">
-        <v>0.25800000000000001</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="E101" s="11">
-        <v>0.437</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="F101" s="11">
         <v>11</v>
       </c>
       <c r="G101" s="11">
-        <v>-6.593</v>
+        <v>-6.319</v>
       </c>
       <c r="H101" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="11">
-        <v>3.9E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="J101" s="11">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="K101" s="12">
-        <v>1.2699999999999999E-6</v>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="K101" s="11">
+        <v>0</v>
       </c>
       <c r="L101" s="11">
-        <v>0.106</v>
+        <v>8.1299999999999997E-2</v>
       </c>
       <c r="M101" s="11">
-        <v>9.6699999999999994E-2</v>
+        <v>0.443</v>
       </c>
       <c r="N101" s="11">
-        <v>180.04300000000001</v>
+        <v>126.684</v>
       </c>
       <c r="O101" s="11">
-        <v>239000</v>
+        <v>196373</v>
       </c>
       <c r="P101" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D102" s="11">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="E102" s="11">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="F102" s="11">
-        <v>11</v>
-      </c>
-      <c r="G102" s="11">
-        <v>-6.319</v>
-      </c>
-      <c r="H102" s="11">
-        <v>1</v>
-      </c>
-      <c r="I102" s="11">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="J102" s="11">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="K102" s="11">
-        <v>0</v>
-      </c>
-      <c r="L102" s="11">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="M102" s="11">
-        <v>0.443</v>
-      </c>
-      <c r="N102" s="11">
-        <v>126.684</v>
-      </c>
-      <c r="O102" s="11">
-        <v>196373</v>
-      </c>
-      <c r="P102" s="11">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
